--- a/006_doc/餐饮行业订单系统/5、工时月报样例（餐饮行业订单系统）.xlsx
+++ b/006_doc/餐饮行业订单系统/5、工时月报样例（餐饮行业订单系统）.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="405" windowWidth="14805" windowHeight="7710" tabRatio="817" firstSheet="1" activeTab="11"/>
@@ -31,7 +31,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'5月工时记录表'!$A$2:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'6月工时记录表'!$A$2:$K$2</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">'7月工时记录表'!$A$2:$K$2</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'8月工时记录表'!$A$2:$K$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'8月工时记录表'!$A$1:$K$15</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">'9月工时记录表'!$A$2:$K$2</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
@@ -135,10 +135,6 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>BSM管理方法研究及培训</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>系统架构师</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -205,9 +201,6 @@
     <t>2017年 2月研发人员工时情况统计表</t>
   </si>
   <si>
-    <t>2017年 3月研发人员工时情况统计表</t>
-  </si>
-  <si>
     <t>2017年4月研发人员工时情况统计表</t>
   </si>
   <si>
@@ -235,13 +228,6 @@
     <t>2017年12月研发人员工时情况统计表</t>
   </si>
   <si>
-    <t>项目暨人力内部采购供应对接系统</t>
-  </si>
-  <si>
-    <t>项目管理高级顾问</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>业务分析人员</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -404,12 +390,25 @@
   <si>
     <t>冼洪钦</t>
     <phoneticPr fontId="4" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐饮行业订单系统</t>
+  </si>
+  <si>
+    <t>2017年3月研发人员工时情况统计表</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>餐饮行业研究及培训</t>
+  </si>
+  <si>
+    <t>餐饮行业高级顾问</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -610,7 +609,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -685,23 +684,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -737,23 +719,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -933,7 +898,7 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection activeCell="E36" sqref="E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -941,19 +906,19 @@
     <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.25" style="9" customWidth="1"/>
     <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" style="14" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -999,19 +964,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1020,27 +985,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1049,27 +1014,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1078,27 +1043,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1107,27 +1072,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1136,27 +1101,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1165,27 +1130,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1194,27 +1159,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1223,27 +1188,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1252,27 +1217,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1281,27 +1246,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1310,27 +1275,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1339,27 +1304,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1368,10 +1333,10 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -1394,26 +1359,27 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="46.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1459,19 +1425,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1480,27 +1446,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1509,27 +1475,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1538,27 +1504,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -1567,27 +1533,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -1596,27 +1562,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -1625,27 +1591,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -1654,27 +1620,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -1683,27 +1649,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1712,27 +1678,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -1741,27 +1707,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -1770,27 +1736,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -1799,27 +1765,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -1828,14 +1794,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
@@ -1849,25 +1814,27 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -1913,19 +1880,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -1934,27 +1901,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -1963,27 +1930,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -1992,27 +1959,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2021,27 +1988,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2050,27 +2017,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2079,27 +2046,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2108,27 +2075,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2137,27 +2104,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2166,27 +2133,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -2195,27 +2162,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2224,27 +2191,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2253,27 +2220,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2282,14 +2249,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
@@ -2303,25 +2269,27 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="49.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2367,19 +2335,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -2388,27 +2356,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2417,27 +2385,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2446,27 +2414,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2475,27 +2443,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2504,27 +2472,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2533,27 +2501,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -2562,27 +2530,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -2591,27 +2559,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -2620,27 +2588,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -2649,27 +2617,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -2678,27 +2646,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -2707,27 +2675,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -2736,14 +2704,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <sortState ref="A493:I549">
     <sortCondition ref="I493:I549"/>
   </sortState>
@@ -2760,25 +2727,27 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -2824,19 +2793,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -2845,27 +2814,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -2874,27 +2843,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -2903,27 +2872,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -2932,27 +2901,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -2961,27 +2930,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -2990,27 +2959,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3019,27 +2988,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3048,27 +3017,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3077,27 +3046,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3106,27 +3075,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -3135,27 +3104,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -3164,27 +3133,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -3193,14 +3162,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
@@ -3214,25 +3182,27 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="31.25" style="17" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>42</v>
+        <v>92</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3278,19 +3248,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -3299,27 +3269,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3328,27 +3298,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3357,27 +3327,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3386,27 +3356,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -3415,27 +3385,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3444,27 +3414,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3473,27 +3443,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3502,27 +3472,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3531,27 +3501,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -3560,27 +3530,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -3589,27 +3559,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -3618,27 +3588,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -3647,10 +3617,10 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -3660,7 +3630,6 @@
       <c r="E17" s="1"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <sortState ref="A404:I475">
     <sortCondition ref="I404:I475"/>
   </sortState>
@@ -3678,25 +3647,27 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="38.375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -3742,19 +3713,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -3763,27 +3734,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -3792,27 +3763,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -3821,27 +3792,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -3850,27 +3821,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -3879,27 +3850,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -3908,27 +3879,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -3937,27 +3908,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -3966,27 +3937,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -3995,27 +3966,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4024,27 +3995,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4053,27 +4024,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -4082,27 +4053,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -4111,14 +4082,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
@@ -4132,26 +4102,27 @@
   <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="42" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="24" style="14" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" style="14" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -4197,19 +4168,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -4218,27 +4189,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4247,27 +4218,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4276,27 +4247,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4305,27 +4276,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4334,27 +4305,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4363,27 +4334,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4392,27 +4363,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4421,27 +4392,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -4450,27 +4421,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4479,27 +4450,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4508,27 +4479,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -4537,27 +4508,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -4566,10 +4537,10 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.15">
@@ -4579,7 +4550,6 @@
       <c r="J17"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
@@ -4593,25 +4563,27 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="27.625" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -4657,19 +4629,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -4678,27 +4650,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -4707,27 +4679,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -4736,27 +4708,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -4765,27 +4737,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -4794,27 +4766,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -4823,27 +4795,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -4852,27 +4824,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -4881,27 +4853,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -4910,27 +4882,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -4939,27 +4911,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -4968,27 +4940,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -4997,27 +4969,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -5026,14 +4998,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <sortState ref="A590:I681">
     <sortCondition ref="I590:I681"/>
   </sortState>
@@ -5050,25 +5021,27 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -5114,19 +5087,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -5135,27 +5108,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -5164,27 +5137,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -5193,27 +5166,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -5222,27 +5195,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -5251,27 +5224,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -5280,27 +5253,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -5309,27 +5282,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -5338,27 +5311,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -5367,27 +5340,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5396,27 +5369,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -5425,27 +5398,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -5454,27 +5427,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -5483,14 +5456,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <sortState ref="A590:I681">
     <sortCondition ref="I590:I681"/>
   </sortState>
@@ -5507,25 +5479,27 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
-    <col min="9" max="10" width="24" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -5571,19 +5545,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -5592,27 +5566,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -5621,27 +5595,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -5650,27 +5624,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -5679,27 +5653,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -5708,27 +5682,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -5737,27 +5711,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -5766,27 +5740,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -5795,27 +5769,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -5824,27 +5798,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -5853,27 +5827,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -5882,27 +5856,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -5911,27 +5885,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -5940,14 +5914,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
@@ -5962,26 +5935,27 @@
   <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:B15"/>
+      <selection sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="8" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="9" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.75" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.875" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="14.25" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.5" style="9" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.25" style="10" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="7.625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="31.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="9" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.5" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.25" style="10" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="24" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="22" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.375" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.75" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="14.25" x14ac:dyDescent="0.15">
       <c r="B1" s="18" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C1" s="19"/>
       <c r="D1" s="19"/>
@@ -6027,19 +6001,19 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A3" s="6" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E3" s="13" t="s">
-        <v>24</v>
+        <v>93</v>
       </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
@@ -6048,27 +6022,27 @@
         <v>21</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>53</v>
+        <v>94</v>
       </c>
       <c r="K3" s="15" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A4" s="6" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C4" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E4" s="16" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
@@ -6077,27 +6051,27 @@
         <v>21</v>
       </c>
       <c r="J4" s="15" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="K4" s="15" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A5" s="6" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E5" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -6106,27 +6080,27 @@
         <v>21</v>
       </c>
       <c r="J5" s="15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="K5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A6" s="6" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D6" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E6" s="16" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -6135,27 +6109,27 @@
         <v>21</v>
       </c>
       <c r="J6" s="15" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="K6" s="15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A7" s="6" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="C7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E7" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
@@ -6164,27 +6138,27 @@
         <v>21</v>
       </c>
       <c r="J7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="K7" s="15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A8" s="6" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C8" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E8" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
@@ -6193,27 +6167,27 @@
         <v>21</v>
       </c>
       <c r="J8" s="15" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K8" s="15" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A9" s="6" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="C9" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E9" s="13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
@@ -6222,27 +6196,27 @@
         <v>21</v>
       </c>
       <c r="J9" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K9" s="15" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A10" s="6" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="C10" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E10" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
@@ -6251,27 +6225,27 @@
         <v>21</v>
       </c>
       <c r="J10" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K10" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K10" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A11" s="6" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D11" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E11" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -6280,27 +6254,27 @@
         <v>21</v>
       </c>
       <c r="J11" s="15" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" s="15" t="s">
         <v>57</v>
-      </c>
-      <c r="K11" s="15" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A12" s="6" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="C12" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D12" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E12" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
@@ -6309,27 +6283,27 @@
         <v>21</v>
       </c>
       <c r="J12" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K12" s="15" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A13" s="6" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C13" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D13" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E13" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
@@ -6338,27 +6312,27 @@
         <v>21</v>
       </c>
       <c r="J13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="K13" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A14" s="6" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C14" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D14" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E14" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
@@ -6367,27 +6341,27 @@
         <v>21</v>
       </c>
       <c r="J14" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K14" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>7</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>52</v>
+        <v>91</v>
       </c>
       <c r="E15" s="16" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
@@ -6396,14 +6370,13 @@
         <v>21</v>
       </c>
       <c r="J15" s="15" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="K15" s="15" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A2:K2"/>
   <mergeCells count="1">
     <mergeCell ref="B1:H1"/>
   </mergeCells>
